--- a/biology/Zoologie/Hemiscorpius/Hemiscorpius.xlsx
+++ b/biology/Zoologie/Hemiscorpius/Hemiscorpius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiscorpius, unique représentant de la famille des Hemiscorpiidae, est un genre de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Moyen-Orient  et en Afrique de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Moyen-Orient  et en Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (12/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (12/06/2020) :
 Hemiscorpius acanthocercus Monod &amp; Lourenço, 2005
 Hemiscorpius arabicus Pocock, 1899
 Hemiscorpius egyptiensis Lourenço, 2011
@@ -589,10 +605,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habibiella[3] a été placée en synonymie par Monod et Lourenço en 2005[4].
-Traditionnellement, les Hemiscorpiinae étaient considérés comme une sous-famille des Scorpionidae. En 1989, Stockwell[5] propose de déplacer les Hemiscorpiinae des Scorpionidae aux Ischnuridae. Cette proposition n'est pas adopté par Fet, Sissom, Lowe et Braunwalder en 2000 dans leurs Catalog of the Scorpions of the World[1]. En 2000, Lourenço[6] et Prendini[7] les élèvent au rang de famille.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habibiella a été placée en synonymie par Monod et Lourenço en 2005.
+Traditionnellement, les Hemiscorpiinae étaient considérés comme une sous-famille des Scorpionidae. En 1989, Stockwell propose de déplacer les Hemiscorpiinae des Scorpionidae aux Ischnuridae. Cette proposition n'est pas adopté par Fet, Sissom, Lowe et Braunwalder en 2000 dans leurs Catalog of the Scorpions of the World. En 2000, Lourenço et Prendini les élèvent au rang de famille.
 </t>
         </is>
       </c>
@@ -621,7 +639,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1861 : « Eine neue Untergattung von Skorpionen. » Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1861, no 1, p. 426-427 (texte intégral).
 Pocock, 1893 : « Notes on the classification of Scorpions, followed by some observations upon synonymy, with descriptions of new genera and species. » Annals and Magazine of Natural History, sér. 6, vol. 12, p. 303–330 (texte intégral).</t>
